--- a/data/raw_files/OECD_plus6_industrial_production.xlsx
+++ b/data/raw_files/OECD_plus6_industrial_production.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11114"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WIP update\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubenexojo/Library/Mobile Documents/com~apple~CloudDocs/phd/eiee/carbon-price/data/raw_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF71957-4F66-CC43-96C9-BE34BFF40F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="46220" windowHeight="41860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="world_IP" sheetId="1" r:id="rId1"/>
@@ -24,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Christiane</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -61,27 +62,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>OECD+6NME industrial production</t>
-  </si>
-  <si>
-    <t>Please cite the following paper as source for these data (from Nov 2011 onward):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baumeister, C. and J.D. Hamilton (2019), </t>
-  </si>
-  <si>
-    <t>American Economic Review, 109(5), 1873-1910.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Structural Interpretation of Vector Autoregressions with Incomplete Identification: Revisiting the Role of Oil Supply and Demand Shocks," </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -420,64 +409,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D770"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="31.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>21186</v>
       </c>
       <c r="B2">
         <v>17.158660000000001</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>21217</v>
       </c>
       <c r="B3">
         <v>17.043589999999998</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>21245</v>
       </c>
       <c r="B4">
         <v>16.985910000000001</v>
       </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>21276</v>
       </c>
@@ -485,7 +463,7 @@
         <v>16.692360000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>21306</v>
       </c>
@@ -493,7 +471,7 @@
         <v>16.78838</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>21337</v>
       </c>
@@ -501,7 +479,7 @@
         <v>17.040120000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>21367</v>
       </c>
@@ -509,7 +487,7 @@
         <v>17.13739</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>21398</v>
       </c>
@@ -517,7 +495,7 @@
         <v>17.376550000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>21429</v>
       </c>
@@ -525,7 +503,7 @@
         <v>17.40091</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>21459</v>
       </c>
@@ -533,7 +511,7 @@
         <v>17.551500000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>21490</v>
       </c>
@@ -541,7 +519,7 @@
         <v>17.849630000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>21520</v>
       </c>
@@ -549,7 +527,7 @@
         <v>17.914719999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>21551</v>
       </c>
@@ -557,7 +535,7 @@
         <v>18.039359999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>21582</v>
       </c>
@@ -565,7 +543,7 @@
         <v>18.311029999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>21610</v>
       </c>
@@ -573,7 +551,7 @@
         <v>18.46969</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>21641</v>
       </c>
@@ -581,7 +559,7 @@
         <v>18.813580000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>21671</v>
       </c>
@@ -589,7 +567,7 @@
         <v>19.068090000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>21702</v>
       </c>
@@ -597,7 +575,7 @@
         <v>19.129480000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>21732</v>
       </c>
@@ -605,7 +583,7 @@
         <v>18.98348</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>21763</v>
       </c>
@@ -613,7 +591,7 @@
         <v>18.843520000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21794</v>
       </c>
@@ -621,7 +599,7 @@
         <v>18.936309999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>21824</v>
       </c>
@@ -629,7 +607,7 @@
         <v>19.108969999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>21855</v>
       </c>
@@ -637,7 +615,7 @@
         <v>19.198080000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>21885</v>
       </c>
@@ -645,7 +623,7 @@
         <v>19.852070000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>21916</v>
       </c>
@@ -653,7 +631,7 @@
         <v>20.170929999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>21947</v>
       </c>
@@ -661,7 +639,7 @@
         <v>20.18242</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>21976</v>
       </c>
@@ -669,7 +647,7 @@
         <v>20.192519999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>22007</v>
       </c>
@@ -677,7 +655,7 @@
         <v>20.197220000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>22037</v>
       </c>
@@ -685,7 +663,7 @@
         <v>20.208110000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>22068</v>
       </c>
@@ -693,7 +671,7 @@
         <v>20.152650000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>22098</v>
       </c>
@@ -701,7 +679,7 @@
         <v>20.275970000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>22129</v>
       </c>
@@ -709,7 +687,7 @@
         <v>20.259080000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>22160</v>
       </c>
@@ -717,7 +695,7 @@
         <v>20.293859999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>22190</v>
       </c>
@@ -725,7 +703,7 @@
         <v>20.37612</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>22221</v>
       </c>
@@ -733,7 +711,7 @@
         <v>20.270779999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>22251</v>
       </c>
@@ -741,7 +719,7 @@
         <v>20.1785</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>22282</v>
       </c>
@@ -749,7 +727,7 @@
         <v>20.28481</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>22313</v>
       </c>
@@ -757,7 +735,7 @@
         <v>20.35952</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>22341</v>
       </c>
@@ -765,7 +743,7 @@
         <v>20.500440000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>22372</v>
       </c>
@@ -773,7 +751,7 @@
         <v>20.724019999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>22402</v>
       </c>
@@ -781,7 +759,7 @@
         <v>20.808730000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>22433</v>
       </c>
@@ -789,7 +767,7 @@
         <v>21.031749999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>22463</v>
       </c>
@@ -797,7 +775,7 @@
         <v>21.308630000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>22494</v>
       </c>
@@ -805,7 +783,7 @@
         <v>21.370270000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>22525</v>
       </c>
@@ -813,7 +791,7 @@
         <v>21.403110000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>22555</v>
       </c>
@@ -821,7 +799,7 @@
         <v>21.65081</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>22586</v>
       </c>
@@ -829,7 +807,7 @@
         <v>21.85324</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>22616</v>
       </c>
@@ -837,7 +815,7 @@
         <v>22.127220000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>22647</v>
       </c>
@@ -845,7 +823,7 @@
         <v>22.151299999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>22678</v>
       </c>
@@ -853,7 +831,7 @@
         <v>22.348490000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>22706</v>
       </c>
@@ -861,7 +839,7 @@
         <v>22.463090000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>22737</v>
       </c>
@@ -869,7 +847,7 @@
         <v>22.409310000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>22767</v>
       </c>
@@ -877,7 +855,7 @@
         <v>22.582540000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>22798</v>
       </c>
@@ -885,7 +863,7 @@
         <v>22.51707</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>22828</v>
       </c>
@@ -893,7 +871,7 @@
         <v>22.697220000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>22859</v>
       </c>
@@ -901,7 +879,7 @@
         <v>22.860900000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>22890</v>
       </c>
@@ -909,7 +887,7 @@
         <v>22.83672</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>22920</v>
       </c>
@@ -917,7 +895,7 @@
         <v>22.804300000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>22951</v>
       </c>
@@ -925,7 +903,7 @@
         <v>22.978819999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>22981</v>
       </c>
@@ -933,7 +911,7 @@
         <v>22.90204</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>23012</v>
       </c>
@@ -941,7 +919,7 @@
         <v>22.974329999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>23043</v>
       </c>
@@ -949,7 +927,7 @@
         <v>23.08765</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>23071</v>
       </c>
@@ -957,7 +935,7 @@
         <v>23.137650000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>23102</v>
       </c>
@@ -965,7 +943,7 @@
         <v>23.578469999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>23132</v>
       </c>
@@ -973,7 +951,7 @@
         <v>23.885750000000002</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>23163</v>
       </c>
@@ -981,7 +959,7 @@
         <v>23.968430000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>23193</v>
       </c>
@@ -989,7 +967,7 @@
         <v>24.100069999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>23224</v>
       </c>
@@ -997,7 +975,7 @@
         <v>24.372160000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>23255</v>
       </c>
@@ -1005,7 +983,7 @@
         <v>24.425419999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>23285</v>
       </c>
@@ -1013,7 +991,7 @@
         <v>24.670339999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>23316</v>
       </c>
@@ -1021,7 +999,7 @@
         <v>24.82912</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>23346</v>
       </c>
@@ -1029,7 +1007,7 @@
         <v>24.780670000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>23377</v>
       </c>
@@ -1037,7 +1015,7 @@
         <v>25.20992</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>23408</v>
       </c>
@@ -1045,7 +1023,7 @@
         <v>25.382930000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>23437</v>
       </c>
@@ -1053,7 +1031,7 @@
         <v>25.322009999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>23468</v>
       </c>
@@ -1061,7 +1039,7 @@
         <v>25.568919999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>23498</v>
       </c>
@@ -1069,7 +1047,7 @@
         <v>25.666789999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>23529</v>
       </c>
@@ -1077,7 +1055,7 @@
         <v>25.773389999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>23559</v>
       </c>
@@ -1085,7 +1063,7 @@
         <v>25.902909999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>23590</v>
       </c>
@@ -1093,7 +1071,7 @@
         <v>25.931609999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>23621</v>
       </c>
@@ -1101,7 +1079,7 @@
         <v>26.160329999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>23651</v>
       </c>
@@ -1109,7 +1087,7 @@
         <v>26.099440000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>23682</v>
       </c>
@@ -1117,7 +1095,7 @@
         <v>26.464469999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>23712</v>
       </c>
@@ -1125,7 +1103,7 @@
         <v>26.722100000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>23743</v>
       </c>
@@ -1133,7 +1111,7 @@
         <v>26.96904</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>23774</v>
       </c>
@@ -1141,7 +1119,7 @@
         <v>26.990549999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>23802</v>
       </c>
@@ -1149,7 +1127,7 @@
         <v>27.092569999999998</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>23833</v>
       </c>
@@ -1157,7 +1135,7 @@
         <v>27.214410000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>23863</v>
       </c>
@@ -1165,7 +1143,7 @@
         <v>27.38391</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>23894</v>
       </c>
@@ -1173,7 +1151,7 @@
         <v>27.503489999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>23924</v>
       </c>
@@ -1181,7 +1159,7 @@
         <v>27.722159999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>23955</v>
       </c>
@@ -1189,7 +1167,7 @@
         <v>27.76031</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>23986</v>
       </c>
@@ -1197,7 +1175,7 @@
         <v>27.922609999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>24016</v>
       </c>
@@ -1205,7 +1183,7 @@
         <v>28.125209999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>24047</v>
       </c>
@@ -1213,7 +1191,7 @@
         <v>28.269310000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>24077</v>
       </c>
@@ -1221,7 +1199,7 @@
         <v>28.536010000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>24108</v>
       </c>
@@ -1229,7 +1207,7 @@
         <v>28.691279999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>24139</v>
       </c>
@@ -1237,7 +1215,7 @@
         <v>28.837700000000002</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>24167</v>
       </c>
@@ -1245,7 +1223,7 @@
         <v>29.307739999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>24198</v>
       </c>
@@ -1253,7 +1231,7 @@
         <v>29.2317</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>24228</v>
       </c>
@@ -1261,7 +1239,7 @@
         <v>29.44312</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>24259</v>
       </c>
@@ -1269,7 +1247,7 @@
         <v>29.62433</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>24289</v>
       </c>
@@ -1277,7 +1255,7 @@
         <v>29.708770000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>24320</v>
       </c>
@@ -1285,7 +1263,7 @@
         <v>29.808859999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>24351</v>
       </c>
@@ -1293,7 +1271,7 @@
         <v>30.04326</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>24381</v>
       </c>
@@ -1301,7 +1279,7 @@
         <v>30.095580000000002</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>24412</v>
       </c>
@@ -1309,7 +1287,7 @@
         <v>30.020050000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>24442</v>
       </c>
@@ -1317,7 +1295,7 @@
         <v>30.193909999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>24473</v>
       </c>
@@ -1325,7 +1303,7 @@
         <v>30.241689999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>24504</v>
       </c>
@@ -1333,7 +1311,7 @@
         <v>30.045559999999998</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>24532</v>
       </c>
@@ -1341,7 +1319,7 @@
         <v>30.026330000000002</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>24563</v>
       </c>
@@ -1349,7 +1327,7 @@
         <v>30.247800000000002</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>24593</v>
       </c>
@@ -1357,7 +1335,7 @@
         <v>30.132079999999998</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>24624</v>
       </c>
@@ -1365,7 +1343,7 @@
         <v>30.356210000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>24654</v>
       </c>
@@ -1373,7 +1351,7 @@
         <v>30.377379999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>24685</v>
       </c>
@@ -1381,7 +1359,7 @@
         <v>30.6799</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>24716</v>
       </c>
@@ -1389,7 +1367,7 @@
         <v>30.850269999999998</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>24746</v>
       </c>
@@ -1397,7 +1375,7 @@
         <v>31.029869999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>24777</v>
       </c>
@@ -1405,7 +1383,7 @@
         <v>31.41703</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>24807</v>
       </c>
@@ -1413,7 +1391,7 @@
         <v>31.874780000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>24838</v>
       </c>
@@ -1421,7 +1399,7 @@
         <v>31.595669999999998</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>24869</v>
       </c>
@@ -1429,7 +1407,7 @@
         <v>31.793140000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>24898</v>
       </c>
@@ -1437,7 +1415,7 @@
         <v>31.98873</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>24929</v>
       </c>
@@ -1445,7 +1423,7 @@
         <v>32.138379999999998</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>24959</v>
       </c>
@@ -1453,7 +1431,7 @@
         <v>31.874220000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>24990</v>
       </c>
@@ -1461,7 +1439,7 @@
         <v>32.373469999999998</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>25020</v>
       </c>
@@ -1469,7 +1447,7 @@
         <v>32.821719999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>25051</v>
       </c>
@@ -1477,7 +1455,7 @@
         <v>33.220700000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>25082</v>
       </c>
@@ -1485,7 +1463,7 @@
         <v>33.235750000000003</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>25112</v>
       </c>
@@ -1493,7 +1471,7 @@
         <v>33.50132</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>25143</v>
       </c>
@@ -1501,7 +1479,7 @@
         <v>33.924790000000002</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>25173</v>
       </c>
@@ -1509,7 +1487,7 @@
         <v>34.100949999999997</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>25204</v>
       </c>
@@ -1517,7 +1495,7 @@
         <v>34.385779999999997</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>25235</v>
       </c>
@@ -1525,7 +1503,7 @@
         <v>34.431240000000003</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>25263</v>
       </c>
@@ -1533,7 +1511,7 @@
         <v>34.779620000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>25294</v>
       </c>
@@ -1541,7 +1519,7 @@
         <v>35.015309999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>25324</v>
       </c>
@@ -1549,7 +1527,7 @@
         <v>35.152529999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>25355</v>
       </c>
@@ -1557,7 +1535,7 @@
         <v>35.388500000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>25385</v>
       </c>
@@ -1565,7 +1543,7 @@
         <v>35.639789999999998</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>25416</v>
       </c>
@@ -1573,7 +1551,7 @@
         <v>35.708260000000003</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>25447</v>
       </c>
@@ -1581,7 +1559,7 @@
         <v>35.620429999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>25477</v>
       </c>
@@ -1589,7 +1567,7 @@
         <v>35.765790000000003</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>25508</v>
       </c>
@@ -1597,7 +1575,7 @@
         <v>35.686819999999997</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>25538</v>
       </c>
@@ -1605,7 +1583,7 @@
         <v>35.751609999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>25569</v>
       </c>
@@ -1613,7 +1591,7 @@
         <v>35.867959999999997</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>25600</v>
       </c>
@@ -1621,7 +1599,7 @@
         <v>36.165300000000002</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>25628</v>
       </c>
@@ -1629,7 +1607,7 @@
         <v>36.199579999999997</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>25659</v>
       </c>
@@ -1637,7 +1615,7 @@
         <v>36.252929999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>25689</v>
       </c>
@@ -1645,7 +1623,7 @@
         <v>36.279870000000003</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>25720</v>
       </c>
@@ -1653,7 +1631,7 @@
         <v>36.239289999999997</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>25750</v>
       </c>
@@ -1661,7 +1639,7 @@
         <v>36.476840000000003</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>25781</v>
       </c>
@@ -1669,7 +1647,7 @@
         <v>36.287140000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>25812</v>
       </c>
@@ -1677,7 +1655,7 @@
         <v>36.254809999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>25842</v>
       </c>
@@ -1685,7 +1663,7 @@
         <v>36.119340000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>25873</v>
       </c>
@@ -1693,7 +1671,7 @@
         <v>35.99727</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>25903</v>
       </c>
@@ -1701,7 +1679,7 @@
         <v>36.523029999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>25934</v>
       </c>
@@ -1709,7 +1687,7 @@
         <v>36.797530000000002</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>25965</v>
       </c>
@@ -1717,7 +1695,7 @@
         <v>36.528730000000003</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>25993</v>
       </c>
@@ -1725,7 +1703,7 @@
         <v>36.495040000000003</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>26024</v>
       </c>
@@ -1733,7 +1711,7 @@
         <v>36.664870000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>26054</v>
       </c>
@@ -1741,7 +1719,7 @@
         <v>36.628680000000003</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>26085</v>
       </c>
@@ -1749,7 +1727,7 @@
         <v>36.942729999999997</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>26115</v>
       </c>
@@ -1757,7 +1735,7 @@
         <v>37.047260000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>26146</v>
       </c>
@@ -1765,7 +1743,7 @@
         <v>36.907179999999997</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>26177</v>
       </c>
@@ -1773,7 +1751,7 @@
         <v>37.312530000000002</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>26207</v>
       </c>
@@ -1781,7 +1759,7 @@
         <v>37.458210000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>26238</v>
       </c>
@@ -1789,7 +1767,7 @@
         <v>37.525950000000002</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>26268</v>
       </c>
@@ -1797,7 +1775,7 @@
         <v>37.624400000000001</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>26299</v>
       </c>
@@ -1805,7 +1783,7 @@
         <v>38.138820000000003</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>26330</v>
       </c>
@@ -1813,7 +1791,7 @@
         <v>37.963169999999998</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>26359</v>
       </c>
@@ -1821,7 +1799,7 @@
         <v>38.585949999999997</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>26390</v>
       </c>
@@ -1829,7 +1807,7 @@
         <v>39.153019999999998</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>26420</v>
       </c>
@@ -1837,7 +1815,7 @@
         <v>39.173299999999998</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>26451</v>
       </c>
@@ -1845,7 +1823,7 @@
         <v>39.354680000000002</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>26481</v>
       </c>
@@ -1853,7 +1831,7 @@
         <v>39.32761</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>26512</v>
       </c>
@@ -1861,7 +1839,7 @@
         <v>39.794649999999997</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>26543</v>
       </c>
@@ -1869,7 +1847,7 @@
         <v>40.078539999999997</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>26573</v>
       </c>
@@ -1877,7 +1855,7 @@
         <v>40.673209999999997</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>26604</v>
       </c>
@@ -1885,7 +1863,7 @@
         <v>41.052100000000003</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>26634</v>
       </c>
@@ -1893,7 +1871,7 @@
         <v>41.989899999999999</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>26665</v>
       </c>
@@ -1901,7 +1879,7 @@
         <v>41.880710000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>26696</v>
       </c>
@@ -1909,7 +1887,7 @@
         <v>42.307969999999997</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>26724</v>
       </c>
@@ -1917,7 +1895,7 @@
         <v>42.564120000000003</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>26755</v>
       </c>
@@ -1925,7 +1903,7 @@
         <v>42.566040000000001</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>26785</v>
       </c>
@@ -1933,7 +1911,7 @@
         <v>43.086790000000001</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>26816</v>
       </c>
@@ -1941,7 +1919,7 @@
         <v>43.235909999999997</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>26846</v>
       </c>
@@ -1949,7 +1927,7 @@
         <v>43.187109999999997</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>26877</v>
       </c>
@@ -1957,7 +1935,7 @@
         <v>43.61835</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>26908</v>
       </c>
@@ -1965,7 +1943,7 @@
         <v>43.748080000000002</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>26938</v>
       </c>
@@ -1973,7 +1951,7 @@
         <v>43.927509999999998</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>26969</v>
       </c>
@@ -1981,7 +1959,7 @@
         <v>44.104680000000002</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>26999</v>
       </c>
@@ -1989,7 +1967,7 @@
         <v>44.02957</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>27030</v>
       </c>
@@ -1997,7 +1975,7 @@
         <v>44.125749999999996</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>27061</v>
       </c>
@@ -2005,7 +1983,7 @@
         <v>43.927309999999999</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>27089</v>
       </c>
@@ -2013,7 +1991,7 @@
         <v>43.89911</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>27120</v>
       </c>
@@ -2021,7 +1999,7 @@
         <v>43.91048</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>27150</v>
       </c>
@@ -2029,7 +2007,7 @@
         <v>44.127929999999999</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <v>27181</v>
       </c>
@@ -2037,7 +2015,7 @@
         <v>43.998089999999998</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>27211</v>
       </c>
@@ -2045,7 +2023,7 @@
         <v>43.593850000000003</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <v>27242</v>
       </c>
@@ -2053,7 +2031,7 @@
         <v>43.529490000000003</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <v>27273</v>
       </c>
@@ -2061,7 +2039,7 @@
         <v>43.026719999999997</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>27303</v>
       </c>
@@ -2069,7 +2047,7 @@
         <v>42.58267</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>27334</v>
       </c>
@@ -2077,7 +2055,7 @@
         <v>41.762619999999998</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>27364</v>
       </c>
@@ -2085,7 +2063,7 @@
         <v>40.561959999999999</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>27395</v>
       </c>
@@ -2093,7 +2071,7 @@
         <v>40.073239999999998</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>27426</v>
       </c>
@@ -2101,7 +2079,7 @@
         <v>39.660980000000002</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <v>27454</v>
       </c>
@@ -2109,7 +2087,7 @@
         <v>39.349629999999998</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <v>27485</v>
       </c>
@@ -2117,7 +2095,7 @@
         <v>39.36544</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>27515</v>
       </c>
@@ -2125,7 +2103,7 @@
         <v>39.108080000000001</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <v>27546</v>
       </c>
@@ -2133,7 +2111,7 @@
         <v>39.415390000000002</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <v>27576</v>
       </c>
@@ -2141,7 +2119,7 @@
         <v>39.45966</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>27607</v>
       </c>
@@ -2149,7 +2127,7 @@
         <v>39.632629999999999</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <v>27638</v>
       </c>
@@ -2157,7 +2135,7 @@
         <v>40.017699999999998</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>27668</v>
       </c>
@@ -2165,7 +2143,7 @@
         <v>40.422409999999999</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <v>27699</v>
       </c>
@@ -2173,7 +2151,7 @@
         <v>40.619210000000002</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <v>27729</v>
       </c>
@@ -2181,7 +2159,7 @@
         <v>40.929389999999998</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>27760</v>
       </c>
@@ -2189,7 +2167,7 @@
         <v>41.389009999999999</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>27791</v>
       </c>
@@ -2197,7 +2175,7 @@
         <v>41.840170000000001</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <v>27820</v>
       </c>
@@ -2205,7 +2183,7 @@
         <v>41.971240000000002</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <v>27851</v>
       </c>
@@ -2213,7 +2191,7 @@
         <v>42.454349999999998</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <v>27881</v>
       </c>
@@ -2221,7 +2199,7 @@
         <v>42.869030000000002</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <v>27912</v>
       </c>
@@ -2229,7 +2207,7 @@
         <v>42.861550000000001</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <v>27942</v>
       </c>
@@ -2237,7 +2215,7 @@
         <v>43.07038</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>27973</v>
       </c>
@@ -2245,7 +2223,7 @@
         <v>43.109610000000004</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <v>28004</v>
       </c>
@@ -2253,7 +2231,7 @@
         <v>43.54618</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <v>28034</v>
       </c>
@@ -2261,7 +2239,7 @@
         <v>43.592219999999998</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <v>28065</v>
       </c>
@@ -2269,7 +2247,7 @@
         <v>44.03595</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <v>28095</v>
       </c>
@@ -2277,7 +2255,7 @@
         <v>44.202730000000003</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <v>28126</v>
       </c>
@@ -2285,7 +2263,7 @@
         <v>44.399749999999997</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
         <v>28157</v>
       </c>
@@ -2293,7 +2271,7 @@
         <v>44.431049999999999</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
         <v>28185</v>
       </c>
@@ -2301,7 +2279,7 @@
         <v>44.688920000000003</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <v>28216</v>
       </c>
@@ -2309,7 +2287,7 @@
         <v>44.666130000000003</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
         <v>28246</v>
       </c>
@@ -2317,7 +2295,7 @@
         <v>44.818150000000003</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
         <v>28277</v>
       </c>
@@ -2325,7 +2303,7 @@
         <v>44.836280000000002</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
         <v>28307</v>
       </c>
@@ -2333,7 +2311,7 @@
         <v>44.609050000000003</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
         <v>28338</v>
       </c>
@@ -2341,7 +2319,7 @@
         <v>44.895209999999999</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
         <v>28369</v>
       </c>
@@ -2349,7 +2327,7 @@
         <v>45.028599999999997</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
         <v>28399</v>
       </c>
@@ -2357,7 +2335,7 @@
         <v>44.999859999999998</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
         <v>28430</v>
       </c>
@@ -2365,7 +2343,7 @@
         <v>45.011220000000002</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <v>28460</v>
       </c>
@@ -2373,7 +2351,7 @@
         <v>45.374969999999998</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <v>28491</v>
       </c>
@@ -2381,7 +2359,7 @@
         <v>45.28913</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
         <v>28522</v>
       </c>
@@ -2389,7 +2367,7 @@
         <v>45.133670000000002</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
         <v>28550</v>
       </c>
@@ -2397,7 +2375,7 @@
         <v>45.484670000000001</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
         <v>28581</v>
       </c>
@@ -2405,7 +2383,7 @@
         <v>46.526989999999998</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
         <v>28611</v>
       </c>
@@ -2413,7 +2391,7 @@
         <v>46.19706</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <v>28642</v>
       </c>
@@ -2421,7 +2399,7 @@
         <v>46.451059999999998</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
         <v>28672</v>
       </c>
@@ -2429,7 +2407,7 @@
         <v>46.605260000000001</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
         <v>28703</v>
       </c>
@@ -2437,7 +2415,7 @@
         <v>46.900239999999997</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
         <v>28734</v>
       </c>
@@ -2445,7 +2423,7 @@
         <v>47.256210000000003</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
         <v>28764</v>
       </c>
@@ -2453,7 +2431,7 @@
         <v>47.410089999999997</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
         <v>28795</v>
       </c>
@@ -2461,7 +2439,7 @@
         <v>47.709699999999998</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
         <v>28825</v>
       </c>
@@ -2469,7 +2447,7 @@
         <v>48.442590000000003</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
         <v>28856</v>
       </c>
@@ -2477,7 +2455,7 @@
         <v>47.553100000000001</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
         <v>28887</v>
       </c>
@@ -2485,7 +2463,7 @@
         <v>48.014449999999997</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
         <v>28915</v>
       </c>
@@ -2493,7 +2471,7 @@
         <v>48.24409</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
         <v>28946</v>
       </c>
@@ -2501,7 +2479,7 @@
         <v>48.3018</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
         <v>28976</v>
       </c>
@@ -2509,7 +2487,7 @@
         <v>48.656480000000002</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
         <v>29007</v>
       </c>
@@ -2517,7 +2495,7 @@
         <v>48.856630000000003</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
         <v>29037</v>
       </c>
@@ -2525,7 +2503,7 @@
         <v>48.969990000000003</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
         <v>29068</v>
       </c>
@@ -2533,7 +2511,7 @@
         <v>49.126100000000001</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
         <v>29099</v>
       </c>
@@ -2541,7 +2519,7 @@
         <v>49.020589999999999</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
         <v>29129</v>
       </c>
@@ -2549,7 +2527,7 @@
         <v>49.241840000000003</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
         <v>29160</v>
       </c>
@@ -2557,7 +2535,7 @@
         <v>49.47119</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
         <v>29190</v>
       </c>
@@ -2565,7 +2543,7 @@
         <v>49.640689999999999</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
         <v>29221</v>
       </c>
@@ -2573,7 +2551,7 @@
         <v>49.815550000000002</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
         <v>29252</v>
       </c>
@@ -2581,7 +2559,7 @@
         <v>49.991300000000003</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
         <v>29281</v>
       </c>
@@ -2589,7 +2567,7 @@
         <v>50.015659999999997</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
         <v>29312</v>
       </c>
@@ -2597,7 +2575,7 @@
         <v>49.377110000000002</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
         <v>29342</v>
       </c>
@@ -2605,7 +2583,7 @@
         <v>48.744500000000002</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
         <v>29373</v>
       </c>
@@ -2613,7 +2591,7 @@
         <v>48.589689999999997</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
         <v>29403</v>
       </c>
@@ -2621,7 +2599,7 @@
         <v>48.331539999999997</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
         <v>29434</v>
       </c>
@@ -2629,7 +2607,7 @@
         <v>48.287430000000001</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
         <v>29465</v>
       </c>
@@ -2637,7 +2615,7 @@
         <v>48.242899999999999</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
         <v>29495</v>
       </c>
@@ -2645,7 +2623,7 @@
         <v>48.521850000000001</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
         <v>29526</v>
       </c>
@@ -2653,7 +2631,7 @@
         <v>48.96902</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
         <v>29556</v>
       </c>
@@ -2661,7 +2639,7 @@
         <v>48.983820000000001</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
         <v>29587</v>
       </c>
@@ -2669,7 +2647,7 @@
         <v>48.845440000000004</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
         <v>29618</v>
       </c>
@@ -2677,7 +2655,7 @@
         <v>49.082419999999999</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
         <v>29646</v>
       </c>
@@ -2685,7 +2663,7 @@
         <v>48.90804</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
         <v>29677</v>
       </c>
@@ -2693,7 +2671,7 @@
         <v>48.848390000000002</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
         <v>29707</v>
       </c>
@@ -2701,7 +2679,7 @@
         <v>48.889569999999999</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
         <v>29738</v>
       </c>
@@ -2709,7 +2687,7 @@
         <v>49.105690000000003</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
         <v>29768</v>
       </c>
@@ -2717,7 +2695,7 @@
         <v>49.410440000000001</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
         <v>29799</v>
       </c>
@@ -2725,7 +2703,7 @@
         <v>49.127949999999998</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
         <v>29830</v>
       </c>
@@ -2733,7 +2711,7 @@
         <v>49.284840000000003</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
         <v>29860</v>
       </c>
@@ -2741,7 +2719,7 @@
         <v>49.30048</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
         <v>29891</v>
       </c>
@@ -2749,7 +2727,7 @@
         <v>49.087879999999998</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
         <v>29921</v>
       </c>
@@ -2757,7 +2735,7 @@
         <v>48.724229999999999</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
         <v>29952</v>
       </c>
@@ -2765,7 +2743,7 @@
         <v>48.50826</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
         <v>29983</v>
       </c>
@@ -2773,7 +2751,7 @@
         <v>48.707389999999997</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
         <v>30011</v>
       </c>
@@ -2781,7 +2759,7 @@
         <v>48.738370000000003</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
         <v>30042</v>
       </c>
@@ -2789,7 +2767,7 @@
         <v>48.595739999999999</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
         <v>30072</v>
       </c>
@@ -2797,7 +2775,7 @@
         <v>48.335929999999998</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
         <v>30103</v>
       </c>
@@ -2805,7 +2783,7 @@
         <v>48.062019999999997</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
         <v>30133</v>
       </c>
@@ -2813,7 +2791,7 @@
         <v>47.847999999999999</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
         <v>30164</v>
       </c>
@@ -2821,7 +2799,7 @@
         <v>47.622950000000003</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
         <v>30195</v>
       </c>
@@ -2829,7 +2807,7 @@
         <v>47.736429999999999</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
         <v>30225</v>
       </c>
@@ -2837,7 +2815,7 @@
         <v>47.084099999999999</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
         <v>30256</v>
       </c>
@@ -2845,7 +2823,7 @@
         <v>47.00177</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
         <v>30286</v>
       </c>
@@ -2853,7 +2831,7 @@
         <v>46.831600000000002</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
         <v>30317</v>
       </c>
@@ -2861,7 +2839,7 @@
         <v>47.397150000000003</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
         <v>30348</v>
       </c>
@@ -2869,7 +2847,7 @@
         <v>47.122320000000002</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
         <v>30376</v>
       </c>
@@ -2877,7 +2855,7 @@
         <v>47.46125</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
         <v>30407</v>
       </c>
@@ -2885,7 +2863,7 @@
         <v>47.795279999999998</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
         <v>30437</v>
       </c>
@@ -2893,7 +2871,7 @@
         <v>47.956159999999997</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
         <v>30468</v>
       </c>
@@ -2901,7 +2879,7 @@
         <v>48.25271</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
         <v>30498</v>
       </c>
@@ -2909,7 +2887,7 @@
         <v>48.384399999999999</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
         <v>30529</v>
       </c>
@@ -2917,7 +2895,7 @@
         <v>48.852400000000003</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
         <v>30560</v>
       </c>
@@ -2925,7 +2903,7 @@
         <v>49.355849999999997</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
         <v>30590</v>
       </c>
@@ -2933,7 +2911,7 @@
         <v>49.540480000000002</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
         <v>30621</v>
       </c>
@@ -2941,7 +2919,7 @@
         <v>49.890920000000001</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
         <v>30651</v>
       </c>
@@ -2949,7 +2927,7 @@
         <v>50.2986</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
         <v>30682</v>
       </c>
@@ -2957,7 +2935,7 @@
         <v>50.739400000000003</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
         <v>30713</v>
       </c>
@@ -2965,7 +2943,7 @@
         <v>51.004759999999997</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
         <v>30742</v>
       </c>
@@ -2973,7 +2951,7 @@
         <v>50.919649999999997</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
         <v>30773</v>
       </c>
@@ -2981,7 +2959,7 @@
         <v>50.998869999999997</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
         <v>30803</v>
       </c>
@@ -2989,7 +2967,7 @@
         <v>51.621510000000001</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
         <v>30834</v>
       </c>
@@ -2997,7 +2975,7 @@
         <v>51.330829999999999</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
         <v>30864</v>
       </c>
@@ -3005,7 +2983,7 @@
         <v>51.912140000000001</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
         <v>30895</v>
       </c>
@@ -3013,7 +2991,7 @@
         <v>52.300179999999997</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
         <v>30926</v>
       </c>
@@ -3021,7 +2999,7 @@
         <v>52.22195</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
         <v>30956</v>
       </c>
@@ -3029,7 +3007,7 @@
         <v>52.347999999999999</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
         <v>30987</v>
       </c>
@@ -3037,7 +3015,7 @@
         <v>52.42436</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
         <v>31017</v>
       </c>
@@ -3045,7 +3023,7 @@
         <v>52.719349999999999</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
         <v>31048</v>
       </c>
@@ -3053,7 +3031,7 @@
         <v>52.844009999999997</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
         <v>31079</v>
       </c>
@@ -3061,7 +3039,7 @@
         <v>53.0092</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
         <v>31107</v>
       </c>
@@ -3069,7 +3047,7 @@
         <v>53.283329999999999</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
         <v>31138</v>
       </c>
@@ -3077,7 +3055,7 @@
         <v>53.098439999999997</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
         <v>31168</v>
       </c>
@@ -3085,7 +3063,7 @@
         <v>53.583889999999997</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
         <v>31199</v>
       </c>
@@ -3093,7 +3071,7 @@
         <v>53.542560000000002</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
         <v>31229</v>
       </c>
@@ -3101,7 +3079,7 @@
         <v>53.595880000000001</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
         <v>31260</v>
       </c>
@@ -3109,7 +3087,7 @@
         <v>53.683480000000003</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
         <v>31291</v>
       </c>
@@ -3117,7 +3095,7 @@
         <v>53.77346</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
         <v>31321</v>
       </c>
@@ -3125,7 +3103,7 @@
         <v>53.881509999999999</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
         <v>31352</v>
       </c>
@@ -3133,7 +3111,7 @@
         <v>54.198779999999999</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
         <v>31382</v>
       </c>
@@ -3141,7 +3119,7 @@
         <v>54.096069999999997</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
         <v>31413</v>
       </c>
@@ -3149,7 +3127,7 @@
         <v>54.409689999999998</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
         <v>31444</v>
       </c>
@@ -3157,7 +3135,7 @@
         <v>54.23668</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
         <v>31472</v>
       </c>
@@ -3165,7 +3143,7 @@
         <v>54.149360000000001</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
         <v>31503</v>
       </c>
@@ -3173,7 +3151,7 @@
         <v>54.473750000000003</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
         <v>31533</v>
       </c>
@@ -3181,7 +3159,7 @@
         <v>54.132719999999999</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
         <v>31564</v>
       </c>
@@ -3189,7 +3167,7 @@
         <v>54.4163</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
         <v>31594</v>
       </c>
@@ -3197,7 +3175,7 @@
         <v>54.712130000000002</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
         <v>31625</v>
       </c>
@@ -3205,7 +3183,7 @@
         <v>54.431100000000001</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
         <v>31656</v>
       </c>
@@ -3213,7 +3191,7 @@
         <v>54.88353</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
         <v>31686</v>
       </c>
@@ -3221,7 +3199,7 @@
         <v>55.022260000000003</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
         <v>31717</v>
       </c>
@@ -3229,7 +3207,7 @@
         <v>54.996259999999999</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
         <v>31747</v>
       </c>
@@ -3237,7 +3215,7 @@
         <v>55.36692</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
         <v>31778</v>
       </c>
@@ -3245,7 +3223,7 @@
         <v>54.7378</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
         <v>31809</v>
       </c>
@@ -3253,7 +3231,7 @@
         <v>55.975000000000001</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
         <v>31837</v>
       </c>
@@ -3261,7 +3239,7 @@
         <v>55.844900000000003</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
         <v>31868</v>
       </c>
@@ -3269,7 +3247,7 @@
         <v>56.161839999999998</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
         <v>31898</v>
       </c>
@@ -3277,7 +3255,7 @@
         <v>56.404899999999998</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
         <v>31929</v>
       </c>
@@ -3285,7 +3263,7 @@
         <v>56.569569999999999</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
         <v>31959</v>
       </c>
@@ -3293,7 +3271,7 @@
         <v>56.704039999999999</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
         <v>31990</v>
       </c>
@@ -3301,7 +3279,7 @@
         <v>56.920569999999998</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
         <v>32021</v>
       </c>
@@ -3309,7 +3287,7 @@
         <v>57.321739999999998</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
         <v>32051</v>
       </c>
@@ -3317,7 +3295,7 @@
         <v>58.016030000000001</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
         <v>32082</v>
       </c>
@@ -3325,7 +3303,7 @@
         <v>58.333440000000003</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
         <v>32112</v>
       </c>
@@ -3333,7 +3311,7 @@
         <v>58.501609999999999</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
         <v>32143</v>
       </c>
@@ -3341,7 +3319,7 @@
         <v>58.993429999999996</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
         <v>32174</v>
       </c>
@@ -3349,7 +3327,7 @@
         <v>59.251939999999998</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
         <v>32203</v>
       </c>
@@ -3357,7 +3335,7 @@
         <v>59.396830000000001</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
         <v>32234</v>
       </c>
@@ -3365,7 +3343,7 @@
         <v>59.494579999999999</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
         <v>32264</v>
       </c>
@@ -3373,7 +3351,7 @@
         <v>59.54889</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
         <v>32295</v>
       </c>
@@ -3381,7 +3359,7 @@
         <v>59.885019999999997</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
         <v>32325</v>
       </c>
@@ -3389,7 +3367,7 @@
         <v>59.770510000000002</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" s="2">
         <v>32356</v>
       </c>
@@ -3397,7 +3375,7 @@
         <v>60.24456</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" s="2">
         <v>32387</v>
       </c>
@@ -3405,7 +3383,7 @@
         <v>60.490200000000002</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" s="2">
         <v>32417</v>
       </c>
@@ -3413,7 +3391,7 @@
         <v>60.498629999999999</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" s="2">
         <v>32448</v>
       </c>
@@ -3421,7 +3399,7 @@
         <v>60.89434</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" s="2">
         <v>32478</v>
       </c>
@@ -3429,7 +3407,7 @@
         <v>61.43759</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" s="2">
         <v>32509</v>
       </c>
@@ -3437,7 +3415,7 @@
         <v>61.430070000000001</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" s="2">
         <v>32540</v>
       </c>
@@ -3445,7 +3423,7 @@
         <v>61.16666</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" s="2">
         <v>32568</v>
       </c>
@@ -3453,7 +3431,7 @@
         <v>61.666080000000001</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" s="2">
         <v>32599</v>
       </c>
@@ -3461,7 +3439,7 @@
         <v>62.058599999999998</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" s="2">
         <v>32629</v>
       </c>
@@ -3469,7 +3447,7 @@
         <v>61.599159999999998</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" s="2">
         <v>32660</v>
       </c>
@@ -3477,7 +3455,7 @@
         <v>62.248100000000001</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" s="2">
         <v>32690</v>
       </c>
@@ -3485,7 +3463,7 @@
         <v>61.864139999999999</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" s="2">
         <v>32721</v>
       </c>
@@ -3493,7 +3471,7 @@
         <v>62.127679999999998</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" s="2">
         <v>32752</v>
       </c>
@@ -3501,7 +3479,7 @@
         <v>62.092080000000003</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" s="2">
         <v>32782</v>
       </c>
@@ -3509,7 +3487,7 @@
         <v>62.005710000000001</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" s="2">
         <v>32813</v>
       </c>
@@ -3517,7 +3495,7 @@
         <v>62.286499999999997</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" s="2">
         <v>32843</v>
       </c>
@@ -3525,7 +3503,7 @@
         <v>62.767719999999997</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" s="2">
         <v>32874</v>
       </c>
@@ -3533,7 +3511,7 @@
         <v>62.518689999999999</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" s="2">
         <v>32905</v>
       </c>
@@ -3541,7 +3519,7 @@
         <v>62.772950000000002</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" s="2">
         <v>32933</v>
       </c>
@@ -3549,7 +3527,7 @@
         <v>63.038029999999999</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" s="2">
         <v>32964</v>
       </c>
@@ -3557,7 +3535,7 @@
         <v>62.392319999999998</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" s="2">
         <v>32994</v>
       </c>
@@ -3565,7 +3543,7 @@
         <v>63.092370000000003</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" s="2">
         <v>33025</v>
       </c>
@@ -3573,7 +3551,7 @@
         <v>63.31662</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" s="2">
         <v>33055</v>
       </c>
@@ -3581,7 +3559,7 @@
         <v>63.307160000000003</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" s="2">
         <v>33086</v>
       </c>
@@ -3589,7 +3567,7 @@
         <v>63.65352</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" s="2">
         <v>33117</v>
       </c>
@@ -3597,7 +3575,7 @@
         <v>63.781280000000002</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" s="2">
         <v>33147</v>
       </c>
@@ -3605,7 +3583,7 @@
         <v>63.738419999999998</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" s="2">
         <v>33178</v>
       </c>
@@ -3613,7 +3591,7 @@
         <v>63.43197</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" s="2">
         <v>33208</v>
       </c>
@@ -3621,7 +3599,7 @@
         <v>63.300690000000003</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" s="2">
         <v>33239</v>
       </c>
@@ -3629,7 +3607,7 @@
         <v>63.428980000000003</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" s="2">
         <v>33270</v>
       </c>
@@ -3637,7 +3615,7 @@
         <v>62.983730000000001</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" s="2">
         <v>33298</v>
       </c>
@@ -3645,7 +3623,7 @@
         <v>62.733409999999999</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" s="2">
         <v>33329</v>
       </c>
@@ -3653,7 +3631,7 @@
         <v>63.189390000000003</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" s="2">
         <v>33359</v>
       </c>
@@ -3661,7 +3639,7 @@
         <v>63.47475</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" s="2">
         <v>33390</v>
       </c>
@@ -3669,7 +3647,7 @@
         <v>63.57452</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" s="2">
         <v>33420</v>
       </c>
@@ -3677,7 +3655,7 @@
         <v>63.656730000000003</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" s="2">
         <v>33451</v>
       </c>
@@ -3685,7 +3663,7 @@
         <v>63.62811</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" s="2">
         <v>33482</v>
       </c>
@@ -3693,7 +3671,7 @@
         <v>63.817039999999999</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" s="2">
         <v>33512</v>
       </c>
@@ -3701,7 +3679,7 @@
         <v>63.996630000000003</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" s="2">
         <v>33543</v>
       </c>
@@ -3709,7 +3687,7 @@
         <v>64.01737</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" s="2">
         <v>33573</v>
       </c>
@@ -3717,7 +3695,7 @@
         <v>63.506169999999997</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" s="2">
         <v>33604</v>
       </c>
@@ -3725,7 +3703,7 @@
         <v>63.777470000000001</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" s="2">
         <v>33635</v>
       </c>
@@ -3733,7 +3711,7 @@
         <v>64.219200000000001</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" s="2">
         <v>33664</v>
       </c>
@@ -3741,7 +3719,7 @@
         <v>64.160769999999999</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" s="2">
         <v>33695</v>
       </c>
@@ -3749,7 +3727,7 @@
         <v>64.293139999999994</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" s="2">
         <v>33725</v>
       </c>
@@ -3757,7 +3735,7 @@
         <v>64.102890000000002</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" s="2">
         <v>33756</v>
       </c>
@@ -3765,7 +3743,7 @@
         <v>64.191689999999994</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" s="2">
         <v>33786</v>
       </c>
@@ -3773,7 +3751,7 @@
         <v>64.492429999999999</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" s="2">
         <v>33817</v>
       </c>
@@ -3781,7 +3759,7 @@
         <v>64.070449999999994</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" s="2">
         <v>33848</v>
       </c>
@@ -3789,7 +3767,7 @@
         <v>64.415989999999994</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" s="2">
         <v>33878</v>
       </c>
@@ -3797,7 +3775,7 @@
         <v>64.52534</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" s="2">
         <v>33909</v>
       </c>
@@ -3805,7 +3783,7 @@
         <v>64.485429999999994</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" s="2">
         <v>33939</v>
       </c>
@@ -3813,7 +3791,7 @@
         <v>64.116140000000001</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" s="2">
         <v>33970</v>
       </c>
@@ -3821,7 +3799,7 @@
         <v>64.612930000000006</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" s="2">
         <v>34001</v>
       </c>
@@ -3829,7 +3807,7 @@
         <v>65.0715</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" s="2">
         <v>34029</v>
       </c>
@@ -3837,7 +3815,7 @@
         <v>65.014880000000005</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" s="2">
         <v>34060</v>
       </c>
@@ -3845,7 +3823,7 @@
         <v>65.199529999999996</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" s="2">
         <v>34090</v>
       </c>
@@ -3853,7 +3831,7 @@
         <v>65.387119999999996</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" s="2">
         <v>34121</v>
       </c>
@@ -3861,7 +3839,7 @@
         <v>65.157420000000002</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" s="2">
         <v>34151</v>
       </c>
@@ -3869,7 +3847,7 @@
         <v>65.166439999999994</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" s="2">
         <v>34182</v>
       </c>
@@ -3877,7 +3855,7 @@
         <v>65.088549999999998</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" s="2">
         <v>34213</v>
       </c>
@@ -3885,7 +3863,7 @@
         <v>65.330889999999997</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" s="2">
         <v>34243</v>
       </c>
@@ -3893,7 +3871,7 @@
         <v>65.333449999999999</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" s="2">
         <v>34274</v>
       </c>
@@ -3901,7 +3879,7 @@
         <v>65.527630000000002</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" s="2">
         <v>34304</v>
       </c>
@@ -3909,7 +3887,7 @@
         <v>65.910409999999999</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" s="2">
         <v>34335</v>
       </c>
@@ -3917,7 +3895,7 @@
         <v>65.884119999999996</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" s="2">
         <v>34366</v>
       </c>
@@ -3925,7 +3903,7 @@
         <v>66.101510000000005</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" s="2">
         <v>34394</v>
       </c>
@@ -3933,7 +3911,7 @@
         <v>66.620170000000002</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" s="2">
         <v>34425</v>
       </c>
@@ -3941,7 +3919,7 @@
         <v>67.051519999999996</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" s="2">
         <v>34455</v>
       </c>
@@ -3949,7 +3927,7 @@
         <v>67.399140000000003</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" s="2">
         <v>34486</v>
       </c>
@@ -3957,7 +3935,7 @@
         <v>67.903859999999995</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" s="2">
         <v>34516</v>
       </c>
@@ -3965,7 +3943,7 @@
         <v>68.061660000000003</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" s="2">
         <v>34547</v>
       </c>
@@ -3973,7 +3951,7 @@
         <v>68.771000000000001</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" s="2">
         <v>34578</v>
       </c>
@@ -3981,7 +3959,7 @@
         <v>69.021960000000007</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" s="2">
         <v>34608</v>
       </c>
@@ -3989,7 +3967,7 @@
         <v>69.534499999999994</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" s="2">
         <v>34639</v>
       </c>
@@ -3997,7 +3975,7 @@
         <v>70.139189999999999</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" s="2">
         <v>34669</v>
       </c>
@@ -4005,7 +3983,7 @@
         <v>70.929060000000007</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" s="2">
         <v>34700</v>
       </c>
@@ -4013,7 +3991,7 @@
         <v>70.683120000000002</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" s="2">
         <v>34731</v>
       </c>
@@ -4021,7 +3999,7 @@
         <v>70.823220000000006</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" s="2">
         <v>34759</v>
       </c>
@@ -4029,7 +4007,7 @@
         <v>70.779039999999995</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" s="2">
         <v>34790</v>
       </c>
@@ -4037,7 +4015,7 @@
         <v>71.098240000000004</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" s="2">
         <v>34820</v>
       </c>
@@ -4045,7 +4023,7 @@
         <v>70.819339999999997</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" s="2">
         <v>34851</v>
       </c>
@@ -4053,7 +4031,7 @@
         <v>71.170810000000003</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" s="2">
         <v>34881</v>
       </c>
@@ -4061,7 +4039,7 @@
         <v>71.090500000000006</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" s="2">
         <v>34912</v>
       </c>
@@ -4069,7 +4047,7 @@
         <v>71.538480000000007</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" s="2">
         <v>34943</v>
       </c>
@@ -4077,7 +4055,7 @@
         <v>71.54795</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" s="2">
         <v>34973</v>
       </c>
@@ -4085,7 +4063,7 @@
         <v>71.546220000000005</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" s="2">
         <v>35004</v>
       </c>
@@ -4093,7 +4071,7 @@
         <v>71.914919999999995</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" s="2">
         <v>35034</v>
       </c>
@@ -4101,7 +4079,7 @@
         <v>72.477369999999993</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" s="2">
         <v>35065</v>
       </c>
@@ -4109,7 +4087,7 @@
         <v>72.337040000000002</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" s="2">
         <v>35096</v>
       </c>
@@ -4117,7 +4095,7 @@
         <v>72.316019999999995</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" s="2">
         <v>35125</v>
       </c>
@@ -4125,7 +4103,7 @@
         <v>72.677149999999997</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" s="2">
         <v>35156</v>
       </c>
@@ -4133,7 +4111,7 @@
         <v>72.969549999999998</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" s="2">
         <v>35186</v>
       </c>
@@ -4141,7 +4119,7 @@
         <v>73.454689999999999</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" s="2">
         <v>35217</v>
       </c>
@@ -4149,7 +4127,7 @@
         <v>73.561549999999997</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" s="2">
         <v>35247</v>
       </c>
@@ -4157,7 +4135,7 @@
         <v>73.791219999999996</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" s="2">
         <v>35278</v>
       </c>
@@ -4165,7 +4143,7 @@
         <v>74.097949999999997</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" s="2">
         <v>35309</v>
       </c>
@@ -4173,7 +4151,7 @@
         <v>74.469319999999996</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" s="2">
         <v>35339</v>
       </c>
@@ -4181,7 +4159,7 @@
         <v>74.681929999999994</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" s="2">
         <v>35370</v>
       </c>
@@ -4189,7 +4167,7 @@
         <v>75.021540000000002</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" s="2">
         <v>35400</v>
       </c>
@@ -4197,7 +4175,7 @@
         <v>75.424189999999996</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" s="2">
         <v>35431</v>
       </c>
@@ -4205,7 +4183,7 @@
         <v>75.668899999999994</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" s="2">
         <v>35462</v>
       </c>
@@ -4213,7 +4191,7 @@
         <v>76.092799999999997</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" s="2">
         <v>35490</v>
       </c>
@@ -4221,7 +4199,7 @@
         <v>76.708240000000004</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" s="2">
         <v>35521</v>
       </c>
@@ -4229,7 +4207,7 @@
         <v>77.120630000000006</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" s="2">
         <v>35551</v>
       </c>
@@ -4237,7 +4215,7 @@
         <v>77.291240000000002</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" s="2">
         <v>35582</v>
       </c>
@@ -4245,7 +4223,7 @@
         <v>77.985669999999999</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" s="2">
         <v>35612</v>
       </c>
@@ -4253,7 +4231,7 @@
         <v>78.268320000000003</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" s="2">
         <v>35643</v>
       </c>
@@ -4261,7 +4239,7 @@
         <v>78.614369999999994</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" s="2">
         <v>35674</v>
       </c>
@@ -4269,7 +4247,7 @@
         <v>79.010069999999999</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" s="2">
         <v>35704</v>
       </c>
@@ -4277,7 +4255,7 @@
         <v>79.543869999999998</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" s="2">
         <v>35735</v>
       </c>
@@ -4285,7 +4263,7 @@
         <v>79.424589999999995</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" s="2">
         <v>35765</v>
       </c>
@@ -4293,7 +4271,7 @@
         <v>79.373779999999996</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" s="2">
         <v>35796</v>
       </c>
@@ -4301,7 +4279,7 @@
         <v>79.205039999999997</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" s="2">
         <v>35827</v>
       </c>
@@ -4309,7 +4287,7 @@
         <v>79.827640000000002</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" s="2">
         <v>35855</v>
       </c>
@@ -4317,7 +4295,7 @@
         <v>79.579729999999998</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" s="2">
         <v>35886</v>
       </c>
@@ -4325,7 +4303,7 @@
         <v>79.520430000000005</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" s="2">
         <v>35916</v>
       </c>
@@ -4333,7 +4311,7 @@
         <v>79.713909999999998</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" s="2">
         <v>35947</v>
       </c>
@@ -4341,7 +4319,7 @@
         <v>79.553420000000003</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" s="2">
         <v>35977</v>
       </c>
@@ -4349,7 +4327,7 @@
         <v>79.470759999999999</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" s="2">
         <v>36008</v>
       </c>
@@ -4357,7 +4335,7 @@
         <v>79.742620000000002</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" s="2">
         <v>36039</v>
       </c>
@@ -4365,7 +4343,7 @@
         <v>79.930279999999996</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" s="2">
         <v>36069</v>
       </c>
@@ -4373,7 +4351,7 @@
         <v>80.166780000000003</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" s="2">
         <v>36100</v>
       </c>
@@ -4381,7 +4359,7 @@
         <v>80.297160000000005</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" s="2">
         <v>36130</v>
       </c>
@@ -4389,7 +4367,7 @@
         <v>80.201239999999999</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" s="2">
         <v>36161</v>
       </c>
@@ -4397,7 +4375,7 @@
         <v>80.96566</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" s="2">
         <v>36192</v>
       </c>
@@ -4405,7 +4383,7 @@
         <v>80.499979999999994</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" s="2">
         <v>36220</v>
       </c>
@@ -4413,7 +4391,7 @@
         <v>81.148219999999995</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" s="2">
         <v>36251</v>
       </c>
@@ -4421,7 +4399,7 @@
         <v>81.197329999999994</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" s="2">
         <v>36281</v>
       </c>
@@ -4429,7 +4407,7 @@
         <v>81.951719999999995</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" s="2">
         <v>36312</v>
       </c>
@@ -4437,7 +4415,7 @@
         <v>82.002560000000003</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" s="2">
         <v>36342</v>
       </c>
@@ -4445,7 +4423,7 @@
         <v>82.572010000000006</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" s="2">
         <v>36373</v>
       </c>
@@ -4453,7 +4431,7 @@
         <v>82.928759999999997</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" s="2">
         <v>36404</v>
       </c>
@@ -4461,7 +4439,7 @@
         <v>83.467060000000004</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" s="2">
         <v>36434</v>
       </c>
@@ -4469,7 +4447,7 @@
         <v>83.950220000000002</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" s="2">
         <v>36465</v>
       </c>
@@ -4477,7 +4455,7 @@
         <v>84.743189999999998</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" s="2">
         <v>36495</v>
       </c>
@@ -4485,7 +4463,7 @@
         <v>85.532560000000004</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" s="2">
         <v>36526</v>
       </c>
@@ -4493,7 +4471,7 @@
         <v>85.323189999999997</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" s="2">
         <v>36557</v>
       </c>
@@ -4501,7 +4479,7 @@
         <v>85.634529999999998</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" s="2">
         <v>36586</v>
       </c>
@@ -4509,7 +4487,7 @@
         <v>86.065070000000006</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" s="2">
         <v>36617</v>
       </c>
@@ -4517,7 +4495,7 @@
         <v>86.918080000000003</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" s="2">
         <v>36647</v>
       </c>
@@ -4525,7 +4503,7 @@
         <v>87.355999999999995</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" s="2">
         <v>36678</v>
       </c>
@@ -4533,7 +4511,7 @@
         <v>87.443349999999995</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" s="2">
         <v>36708</v>
       </c>
@@ -4541,7 +4519,7 @@
         <v>87.759680000000003</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" s="2">
         <v>36739</v>
       </c>
@@ -4549,7 +4527,7 @@
         <v>88.185360000000003</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" s="2">
         <v>36770</v>
       </c>
@@ -4557,7 +4535,7 @@
         <v>87.989270000000005</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" s="2">
         <v>36800</v>
       </c>
@@ -4565,7 +4543,7 @@
         <v>88.280940000000001</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" s="2">
         <v>36831</v>
       </c>
@@ -4573,7 +4551,7 @@
         <v>88.602180000000004</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" s="2">
         <v>36861</v>
       </c>
@@ -4581,7 +4559,7 @@
         <v>88.918909999999997</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" s="2">
         <v>36892</v>
       </c>
@@ -4589,7 +4567,7 @@
         <v>87.723500000000001</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" s="2">
         <v>36923</v>
       </c>
@@ -4597,7 +4575,7 @@
         <v>88.453180000000003</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" s="2">
         <v>36951</v>
       </c>
@@ -4605,7 +4583,7 @@
         <v>87.630679999999998</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" s="2">
         <v>36982</v>
       </c>
@@ -4613,7 +4591,7 @@
         <v>87.244709999999998</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" s="2">
         <v>37012</v>
       </c>
@@ -4621,7 +4599,7 @@
         <v>87.226910000000004</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" s="2">
         <v>37043</v>
       </c>
@@ -4629,7 +4607,7 @@
         <v>87.014679999999998</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" s="2">
         <v>37073</v>
       </c>
@@ -4637,7 +4615,7 @@
         <v>86.409419999999997</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" s="2">
         <v>37104</v>
       </c>
@@ -4645,7 +4623,7 @@
         <v>86.883610000000004</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" s="2">
         <v>37135</v>
       </c>
@@ -4653,7 +4631,7 @@
         <v>86.290890000000005</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" s="2">
         <v>37165</v>
       </c>
@@ -4661,7 +4639,7 @@
         <v>86.007919999999999</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" s="2">
         <v>37196</v>
       </c>
@@ -4669,7 +4647,7 @@
         <v>85.776430000000005</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" s="2">
         <v>37226</v>
       </c>
@@ -4677,7 +4655,7 @@
         <v>85.842770000000002</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" s="2">
         <v>37257</v>
       </c>
@@ -4685,7 +4663,7 @@
         <v>86.752880000000005</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" s="2">
         <v>37288</v>
       </c>
@@ -4693,7 +4671,7 @@
         <v>86.518349999999998</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" s="2">
         <v>37316</v>
       </c>
@@ -4701,7 +4679,7 @@
         <v>87.361170000000001</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" s="2">
         <v>37347</v>
       </c>
@@ -4709,7 +4687,7 @@
         <v>87.974559999999997</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" s="2">
         <v>37377</v>
       </c>
@@ -4717,7 +4695,7 @@
         <v>88.308300000000003</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" s="2">
         <v>37408</v>
       </c>
@@ -4725,7 +4703,7 @@
         <v>88.481049999999996</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" s="2">
         <v>37438</v>
       </c>
@@ -4733,7 +4711,7 @@
         <v>88.838800000000006</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" s="2">
         <v>37469</v>
       </c>
@@ -4741,7 +4719,7 @@
         <v>89.144130000000004</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" s="2">
         <v>37500</v>
       </c>
@@ -4749,7 +4727,7 @@
         <v>89.408810000000003</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" s="2">
         <v>37530</v>
       </c>
@@ -4757,7 +4735,7 @@
         <v>89.506450000000001</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" s="2">
         <v>37561</v>
       </c>
@@ -4765,7 +4743,7 @@
         <v>89.820520000000002</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" s="2">
         <v>37591</v>
       </c>
@@ -4773,7 +4751,7 @@
         <v>89.514849999999996</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" s="2">
         <v>37622</v>
       </c>
@@ -4781,7 +4759,7 @@
         <v>90.516170000000002</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" s="2">
         <v>37653</v>
       </c>
@@ -4789,7 +4767,7 @@
         <v>90.493579999999994</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" s="2">
         <v>37681</v>
       </c>
@@ -4797,7 +4775,7 @@
         <v>90.541089999999997</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545" s="2">
         <v>37712</v>
       </c>
@@ -4805,7 +4783,7 @@
         <v>90.274919999999995</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546" s="2">
         <v>37742</v>
       </c>
@@ -4813,7 +4791,7 @@
         <v>90.132419999999996</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547" s="2">
         <v>37773</v>
       </c>
@@ -4821,7 +4799,7 @@
         <v>90.549040000000005</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548" s="2">
         <v>37803</v>
       </c>
@@ -4829,7 +4807,7 @@
         <v>91.219329999999999</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549" s="2">
         <v>37834</v>
       </c>
@@ -4837,7 +4815,7 @@
         <v>91.101550000000003</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550" s="2">
         <v>37865</v>
       </c>
@@ -4845,7 +4823,7 @@
         <v>91.965869999999995</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A551" s="2">
         <v>37895</v>
       </c>
@@ -4853,7 +4831,7 @@
         <v>92.80256</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A552" s="2">
         <v>37926</v>
       </c>
@@ -4861,7 +4839,7 @@
         <v>93.109260000000006</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A553" s="2">
         <v>37956</v>
       </c>
@@ -4869,7 +4847,7 @@
         <v>93.794749999999993</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554" s="2">
         <v>37987</v>
       </c>
@@ -4877,7 +4855,7 @@
         <v>93.643230000000003</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555" s="2">
         <v>38018</v>
       </c>
@@ -4885,7 +4863,7 @@
         <v>94.864930000000001</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556" s="2">
         <v>38047</v>
       </c>
@@ -4893,7 +4871,7 @@
         <v>94.842579999999998</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557" s="2">
         <v>38078</v>
       </c>
@@ -4901,7 +4879,7 @@
         <v>95.461780000000005</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558" s="2">
         <v>38108</v>
       </c>
@@ -4909,7 +4887,7 @@
         <v>95.780320000000003</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559" s="2">
         <v>38139</v>
       </c>
@@ -4917,7 +4895,7 @@
         <v>95.707149999999999</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560" s="2">
         <v>38169</v>
       </c>
@@ -4925,7 +4903,7 @@
         <v>96.365390000000005</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561" s="2">
         <v>38200</v>
       </c>
@@ -4933,7 +4911,7 @@
         <v>96.41619</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A562" s="2">
         <v>38231</v>
       </c>
@@ -4941,7 +4919,7 @@
         <v>96.805130000000005</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A563" s="2">
         <v>38261</v>
       </c>
@@ -4949,7 +4927,7 @@
         <v>97.240899999999996</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564" s="2">
         <v>38292</v>
       </c>
@@ -4957,7 +4935,7 @@
         <v>97.384119999999996</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A565" s="2">
         <v>38322</v>
       </c>
@@ -4965,7 +4943,7 @@
         <v>97.728980000000007</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A566" s="2">
         <v>38353</v>
       </c>
@@ -4973,7 +4951,7 @@
         <v>98.488140000000001</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A567" s="2">
         <v>38384</v>
       </c>
@@ -4981,7 +4959,7 @@
         <v>98.547129999999996</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568" s="2">
         <v>38412</v>
       </c>
@@ -4989,7 +4967,7 @@
         <v>98.779730000000001</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569" s="2">
         <v>38443</v>
       </c>
@@ -4997,7 +4975,7 @@
         <v>99.500789999999995</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570" s="2">
         <v>38473</v>
       </c>
@@ -5005,7 +4983,7 @@
         <v>99.127110000000002</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571" s="2">
         <v>38504</v>
       </c>
@@ -5013,7 +4991,7 @@
         <v>99.791139999999999</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572" s="2">
         <v>38534</v>
       </c>
@@ -5021,7 +4999,7 @@
         <v>99.880129999999994</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573" s="2">
         <v>38565</v>
       </c>
@@ -5029,7 +5007,7 @@
         <v>100.1999</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574" s="2">
         <v>38596</v>
       </c>
@@ -5037,7 +5015,7 @@
         <v>100.28400000000001</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A575" s="2">
         <v>38626</v>
       </c>
@@ -5045,7 +5023,7 @@
         <v>100.8638</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A576" s="2">
         <v>38657</v>
       </c>
@@ -5053,7 +5031,7 @@
         <v>101.93819999999999</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577" s="2">
         <v>38687</v>
       </c>
@@ -5061,7 +5039,7 @@
         <v>102.6133</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578" s="2">
         <v>38718</v>
       </c>
@@ -5069,7 +5047,7 @@
         <v>102.4846</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579" s="2">
         <v>38749</v>
       </c>
@@ -5077,7 +5055,7 @@
         <v>103.3763</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580" s="2">
         <v>38777</v>
       </c>
@@ -5085,7 +5063,7 @@
         <v>103.7015</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581" s="2">
         <v>38808</v>
       </c>
@@ -5093,7 +5071,7 @@
         <v>104.1263</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582" s="2">
         <v>38838</v>
       </c>
@@ -5101,7 +5079,7 @@
         <v>104.83110000000001</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583" s="2">
         <v>38869</v>
       </c>
@@ -5109,7 +5087,7 @@
         <v>105.1742</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584" s="2">
         <v>38899</v>
       </c>
@@ -5117,7 +5095,7 @@
         <v>105.5162</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" s="2">
         <v>38930</v>
       </c>
@@ -5125,7 +5103,7 @@
         <v>105.93040000000001</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" s="2">
         <v>38961</v>
       </c>
@@ -5133,7 +5111,7 @@
         <v>106.3349</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" s="2">
         <v>38991</v>
       </c>
@@ -5141,7 +5119,7 @@
         <v>106.608</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" s="2">
         <v>39022</v>
       </c>
@@ -5149,7 +5127,7 @@
         <v>107.87860000000001</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" s="2">
         <v>39052</v>
       </c>
@@ -5157,7 +5135,7 @@
         <v>108.57129999999999</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590" s="2">
         <v>39083</v>
       </c>
@@ -5165,7 +5143,7 @@
         <v>109.2043</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591" s="2">
         <v>39114</v>
       </c>
@@ -5173,7 +5151,7 @@
         <v>109.4357</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592" s="2">
         <v>39142</v>
       </c>
@@ -5181,7 +5159,7 @@
         <v>110.15179999999999</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A593" s="2">
         <v>39173</v>
       </c>
@@ -5189,7 +5167,7 @@
         <v>110.30110000000001</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A594" s="2">
         <v>39203</v>
       </c>
@@ -5197,7 +5175,7 @@
         <v>111.31270000000001</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A595" s="2">
         <v>39234</v>
       </c>
@@ -5205,7 +5183,7 @@
         <v>111.4787</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A596" s="2">
         <v>39264</v>
       </c>
@@ -5213,7 +5191,7 @@
         <v>111.97799999999999</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A597" s="2">
         <v>39295</v>
       </c>
@@ -5221,7 +5199,7 @@
         <v>112.4597</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A598" s="2">
         <v>39326</v>
       </c>
@@ -5229,7 +5207,7 @@
         <v>112.5314</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A599" s="2">
         <v>39356</v>
       </c>
@@ -5237,7 +5215,7 @@
         <v>113.2724</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A600" s="2">
         <v>39387</v>
       </c>
@@ -5245,7 +5223,7 @@
         <v>113.74290000000001</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A601" s="2">
         <v>39417</v>
       </c>
@@ -5253,7 +5231,7 @@
         <v>113.9851</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602" s="2">
         <v>39448</v>
       </c>
@@ -5261,7 +5239,7 @@
         <v>115.6785</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A603" s="2">
         <v>39479</v>
       </c>
@@ -5269,7 +5247,7 @@
         <v>115.05029999999999</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A604" s="2">
         <v>39508</v>
       </c>
@@ -5277,7 +5255,7 @@
         <v>114.6896</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A605" s="2">
         <v>39539</v>
       </c>
@@ -5285,7 +5263,7 @@
         <v>115.1825</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A606" s="2">
         <v>39569</v>
       </c>
@@ -5293,7 +5271,7 @@
         <v>114.1686</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A607" s="2">
         <v>39600</v>
       </c>
@@ -5301,7 +5279,7 @@
         <v>114.4692</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A608" s="2">
         <v>39630</v>
       </c>
@@ -5309,7 +5287,7 @@
         <v>113.70659999999999</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A609" s="2">
         <v>39661</v>
       </c>
@@ -5317,7 +5295,7 @@
         <v>112.6833</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A610" s="2">
         <v>39692</v>
       </c>
@@ -5325,7 +5303,7 @@
         <v>111.54130000000001</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A611" s="2">
         <v>39722</v>
       </c>
@@ -5333,7 +5311,7 @@
         <v>109.8184</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A612" s="2">
         <v>39753</v>
       </c>
@@ -5341,7 +5319,7 @@
         <v>106.8489</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A613" s="2">
         <v>39783</v>
       </c>
@@ -5349,7 +5327,7 @@
         <v>103.4164</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A614" s="2">
         <v>39814</v>
       </c>
@@ -5357,7 +5335,7 @@
         <v>100.49039999999999</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A615" s="2">
         <v>39845</v>
       </c>
@@ -5365,7 +5343,7 @@
         <v>101.3404</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A616" s="2">
         <v>39873</v>
       </c>
@@ -5373,7 +5351,7 @@
         <v>100.8404</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A617" s="2">
         <v>39904</v>
       </c>
@@ -5381,7 +5359,7 @@
         <v>101.0283</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A618" s="2">
         <v>39934</v>
       </c>
@@ -5389,7 +5367,7 @@
         <v>101.6028</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A619" s="2">
         <v>39965</v>
       </c>
@@ -5397,7 +5375,7 @@
         <v>102.5956</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A620" s="2">
         <v>39995</v>
       </c>
@@ -5405,7 +5383,7 @@
         <v>103.5034</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A621" s="2">
         <v>40026</v>
       </c>
@@ -5413,7 +5391,7 @@
         <v>104.3562</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A622" s="2">
         <v>40057</v>
       </c>
@@ -5421,7 +5399,7 @@
         <v>105.5352</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A623" s="2">
         <v>40087</v>
       </c>
@@ -5429,7 +5407,7 @@
         <v>106.04770000000001</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A624" s="2">
         <v>40118</v>
       </c>
@@ -5437,7 +5415,7 @@
         <v>107.0355</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A625" s="2">
         <v>40148</v>
       </c>
@@ -5445,7 +5423,7 @@
         <v>107.667</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A626" s="2">
         <v>40179</v>
       </c>
@@ -5453,7 +5431,7 @@
         <v>109.66849999999999</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A627" s="2">
         <v>40210</v>
       </c>
@@ -5461,7 +5439,7 @@
         <v>109.52509999999999</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A628" s="2">
         <v>40238</v>
       </c>
@@ -5469,7 +5447,7 @@
         <v>111.12949999999999</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A629" s="2">
         <v>40269</v>
       </c>
@@ -5477,7 +5455,7 @@
         <v>111.63500000000001</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A630" s="2">
         <v>40299</v>
       </c>
@@ -5485,7 +5463,7 @@
         <v>112.58069999999999</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A631" s="2">
         <v>40330</v>
       </c>
@@ -5493,7 +5471,7 @@
         <v>112.3613</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A632" s="2">
         <v>40360</v>
       </c>
@@ -5501,7 +5479,7 @@
         <v>112.8854</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A633" s="2">
         <v>40391</v>
       </c>
@@ -5509,7 +5487,7 @@
         <v>113.30880000000001</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A634" s="2">
         <v>40422</v>
       </c>
@@ -5517,7 +5495,7 @@
         <v>113.5702</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A635" s="2">
         <v>40452</v>
       </c>
@@ -5525,7 +5503,7 @@
         <v>114.1142</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A636" s="2">
         <v>40483</v>
       </c>
@@ -5533,7 +5511,7 @@
         <v>114.7718</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A637" s="2">
         <v>40513</v>
       </c>
@@ -5541,7 +5519,7 @@
         <v>116.1199</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A638" s="2">
         <v>40544</v>
       </c>
@@ -5549,7 +5527,7 @@
         <v>117.7303</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A639" s="2">
         <v>40575</v>
       </c>
@@ -5557,7 +5535,7 @@
         <v>117.5355</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A640" s="2">
         <v>40603</v>
       </c>
@@ -5565,7 +5543,7 @@
         <v>117.1961</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A641" s="2">
         <v>40634</v>
       </c>
@@ -5573,7 +5551,7 @@
         <v>116.61060000000001</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A642" s="2">
         <v>40664</v>
       </c>
@@ -5581,7 +5559,7 @@
         <v>117.684</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A643" s="2">
         <v>40695</v>
       </c>
@@ -5589,7 +5567,7 @@
         <v>117.9905</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A644" s="2">
         <v>40725</v>
       </c>
@@ -5597,7 +5575,7 @@
         <v>118.34990000000001</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A645" s="2">
         <v>40756</v>
       </c>
@@ -5605,7 +5583,7 @@
         <v>118.6061</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A646" s="2">
         <v>40787</v>
       </c>
@@ -5613,7 +5591,7 @@
         <v>118.533</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A647" s="2">
         <v>40817</v>
       </c>
@@ -5621,7 +5599,7 @@
         <v>118.5491</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A648" s="3">
         <v>40848</v>
       </c>
@@ -5629,7 +5607,7 @@
         <v>118.14075730506754</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A649" s="2">
         <v>40878</v>
       </c>
@@ -5637,7 +5615,7 @@
         <v>118.41470415791355</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A650" s="2">
         <v>40909</v>
       </c>
@@ -5645,7 +5623,7 @@
         <v>119.33437715532203</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A651" s="2">
         <v>40940</v>
       </c>
@@ -5653,7 +5631,7 @@
         <v>119.58573725959694</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A652" s="2">
         <v>40969</v>
       </c>
@@ -5661,7 +5639,7 @@
         <v>118.99054109179259</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A653" s="2">
         <v>41000</v>
       </c>
@@ -5669,7 +5647,7 @@
         <v>118.15970701999298</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A654" s="2">
         <v>41030</v>
       </c>
@@ -5677,7 +5655,7 @@
         <v>118.86664944643007</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A655" s="2">
         <v>41061</v>
       </c>
@@ -5685,7 +5663,7 @@
         <v>118.3926607642689</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A656" s="2">
         <v>41091</v>
       </c>
@@ -5693,7 +5671,7 @@
         <v>118.52036283139523</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A657" s="2">
         <v>41122</v>
       </c>
@@ -5701,7 +5679,7 @@
         <v>118.16673072549602</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658" s="2">
         <v>41153</v>
       </c>
@@ -5709,7 +5687,7 @@
         <v>117.75755242288895</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A659" s="2">
         <v>41183</v>
       </c>
@@ -5717,7 +5695,7 @@
         <v>118.35596815169392</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A660" s="2">
         <v>41214</v>
       </c>
@@ -5725,7 +5703,7 @@
         <v>118.19566799799401</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A661" s="2">
         <v>41244</v>
       </c>
@@ -5733,7 +5711,7 @@
         <v>118.57286011270736</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A662" s="2">
         <v>41275</v>
       </c>
@@ -5741,7 +5719,7 @@
         <v>119.04896745594699</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663" s="2">
         <v>41306</v>
       </c>
@@ -5749,7 +5727,7 @@
         <v>119.02866143345256</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A664" s="2">
         <v>41334</v>
       </c>
@@ -5757,7 +5735,7 @@
         <v>119.35038495946846</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A665" s="2">
         <v>41365</v>
       </c>
@@ -5765,7 +5743,7 @@
         <v>119.80717869674264</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A666" s="2">
         <v>41395</v>
       </c>
@@ -5773,7 +5751,7 @@
         <v>119.89250139482283</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667" s="2">
         <v>41426</v>
       </c>
@@ -5781,7 +5759,7 @@
         <v>119.38053640623478</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668" s="2">
         <v>41456</v>
       </c>
@@ -5789,7 +5767,7 @@
         <v>120.06179493641287</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669" s="2">
         <v>41487</v>
       </c>
@@ -5797,7 +5775,7 @@
         <v>120.62158187704878</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670" s="2">
         <v>41518</v>
       </c>
@@ -5805,7 +5783,7 @@
         <v>120.99892306608187</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" s="2">
         <v>41548</v>
       </c>
@@ -5813,7 +5791,7 @@
         <v>120.81653939296628</v>
       </c>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A672" s="2">
         <v>41579</v>
       </c>
@@ -5821,7 +5799,7 @@
         <v>121.39299775045774</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A673" s="2">
         <v>41609</v>
       </c>
@@ -5829,7 +5807,7 @@
         <v>121.2350712992764</v>
       </c>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A674" s="2">
         <v>41640</v>
       </c>
@@ -5837,7 +5815,7 @@
         <v>122.29477842314841</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A675" s="2">
         <v>41671</v>
       </c>
@@ -5845,7 +5823,7 @@
         <v>122.99393056930916</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A676" s="2">
         <v>41699</v>
       </c>
@@ -5853,7 +5831,7 @@
         <v>122.80862122821897</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677" s="2">
         <v>41730</v>
       </c>
@@ -5861,7 +5839,7 @@
         <v>123.28358667038096</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A678" s="2">
         <v>41760</v>
       </c>
@@ -5869,7 +5847,7 @@
         <v>122.99587285905162</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A679" s="2">
         <v>41791</v>
       </c>
@@ -5877,7 +5855,7 @@
         <v>123.2257264918003</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A680" s="2">
         <v>41821</v>
       </c>
@@ -5885,7 +5863,7 @@
         <v>123.45360970387436</v>
       </c>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A681" s="2">
         <v>41852</v>
       </c>
@@ -5893,7 +5871,7 @@
         <v>122.25831169856602</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A682" s="2">
         <v>41883</v>
       </c>
@@ -5901,7 +5879,7 @@
         <v>123.48572963177847</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A683" s="2">
         <v>41913</v>
       </c>
@@ -5909,7 +5887,7 @@
         <v>122.65342657538569</v>
       </c>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A684" s="2">
         <v>41944</v>
       </c>
@@ -5917,7 +5895,7 @@
         <v>123.5449340741413</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A685" s="2">
         <v>41974</v>
       </c>
@@ -5925,7 +5903,7 @@
         <v>123.82562279424961</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A686" s="2">
         <v>42005</v>
       </c>
@@ -5933,7 +5911,7 @@
         <v>124.51339629768127</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A687" s="2">
         <v>42036</v>
       </c>
@@ -5941,7 +5919,7 @@
         <v>124.17704048680501</v>
       </c>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A688" s="2">
         <v>42064</v>
       </c>
@@ -5949,7 +5927,7 @@
         <v>124.13239125563145</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A689" s="2">
         <v>42095</v>
       </c>
@@ -5957,7 +5935,7 @@
         <v>124.06245844535665</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A690" s="2">
         <v>42125</v>
       </c>
@@ -5965,7 +5943,7 @@
         <v>123.74836754574204</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A691" s="2">
         <v>42156</v>
       </c>
@@ -5973,7 +5951,7 @@
         <v>124.33509119711461</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A692" s="2">
         <v>42186</v>
       </c>
@@ -5981,7 +5959,7 @@
         <v>124.07425868463432</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A693" s="2">
         <v>42217</v>
       </c>
@@ -5989,7 +5967,7 @@
         <v>124.49109553380849</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A694" s="2">
         <v>42248</v>
       </c>
@@ -5997,7 +5975,7 @@
         <v>124.37144851537983</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A695" s="2">
         <v>42278</v>
       </c>
@@ -6005,7 +5983,7 @@
         <v>124.77885124480906</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A696" s="2">
         <v>42309</v>
       </c>
@@ -6013,7 +5991,7 @@
         <v>124.31098861255964</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A697" s="2">
         <v>42339</v>
       </c>
@@ -6021,7 +5999,7 @@
         <v>124.01275898947097</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A698" s="2">
         <v>42370</v>
       </c>
@@ -6029,7 +6007,7 @@
         <v>125.35768452359675</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A699" s="2">
         <v>42401</v>
       </c>
@@ -6037,7 +6015,7 @@
         <v>125.02797942597637</v>
       </c>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A700" s="2">
         <v>42430</v>
       </c>
@@ -6045,7 +6023,7 @@
         <v>125.28072428385592</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A701" s="2">
         <v>42461</v>
       </c>
@@ -6053,7 +6031,7 @@
         <v>125.51082522869189</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A702" s="2">
         <v>42491</v>
       </c>
@@ -6061,7 +6039,7 @@
         <v>125.44819974466931</v>
       </c>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A703" s="2">
         <v>42522</v>
       </c>
@@ -6069,7 +6047,7 @@
         <v>126.31682558927686</v>
       </c>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A704" s="2">
         <v>42552</v>
       </c>
@@ -6077,7 +6055,7 @@
         <v>125.70197635861378</v>
       </c>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A705" s="2">
         <v>42583</v>
       </c>
@@ -6085,7 +6063,7 @@
         <v>126.07324989916349</v>
       </c>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A706" s="2">
         <v>42614</v>
       </c>
@@ -6093,7 +6071,7 @@
         <v>125.96148503155078</v>
       </c>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A707" s="2">
         <v>42644</v>
       </c>
@@ -6101,7 +6079,7 @@
         <v>126.83403785871297</v>
       </c>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A708" s="2">
         <v>42675</v>
       </c>
@@ -6109,7 +6087,7 @@
         <v>126.92318194808253</v>
       </c>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A709" s="2">
         <v>42705</v>
       </c>
@@ -6117,7 +6095,7 @@
         <v>126.88902479694869</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A710" s="2">
         <v>42736</v>
       </c>
@@ -6125,7 +6103,7 @@
         <v>127.85577746216126</v>
       </c>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A711" s="2">
         <v>42767</v>
       </c>
@@ -6133,7 +6111,7 @@
         <v>128.33369493686936</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A712" s="2">
         <v>42795</v>
       </c>
@@ -6141,7 +6119,7 @@
         <v>129.01558161615276</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A713" s="2">
         <v>42826</v>
       </c>
@@ -6149,7 +6127,7 @@
         <v>129.27656943628483</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A714" s="2">
         <v>42856</v>
       </c>
@@ -6157,7 +6135,7 @@
         <v>129.50706446858402</v>
       </c>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A715" s="2">
         <v>42887</v>
       </c>
@@ -6165,7 +6143,7 @@
         <v>129.47927127320767</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A716" s="2">
         <v>42917</v>
       </c>
@@ -6173,7 +6151,7 @@
         <v>129.33671267722045</v>
       </c>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A717" s="2">
         <v>42948</v>
       </c>
@@ -6181,7 +6159,7 @@
         <v>130.17848438081424</v>
       </c>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A718" s="2">
         <v>42979</v>
       </c>
@@ -6189,7 +6167,7 @@
         <v>130.46378519162477</v>
       </c>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A719" s="2">
         <v>43009</v>
       </c>
@@ -6197,7 +6175,7 @@
         <v>130.55413121856733</v>
       </c>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A720" s="2">
         <v>43040</v>
       </c>
@@ -6205,7 +6183,7 @@
         <v>131.77102810417074</v>
       </c>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A721" s="2">
         <v>43070</v>
       </c>
@@ -6213,7 +6191,7 @@
         <v>131.96378721102226</v>
       </c>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A722" s="2">
         <v>43101</v>
       </c>
@@ -6221,7 +6199,7 @@
         <v>132.47125094422424</v>
       </c>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A723" s="2">
         <v>43132</v>
       </c>
@@ -6229,7 +6207,7 @@
         <v>132.93298644421094</v>
       </c>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A724" s="2">
         <v>43160</v>
       </c>
@@ -6237,7 +6215,7 @@
         <v>132.44750488403352</v>
       </c>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A725" s="2">
         <v>43191</v>
       </c>
@@ -6245,7 +6223,7 @@
         <v>133.15785976208238</v>
       </c>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A726" s="2">
         <v>43221</v>
       </c>
@@ -6253,7 +6231,7 @@
         <v>132.90321082650064</v>
       </c>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A727" s="2">
         <v>43252</v>
       </c>
@@ -6261,7 +6239,7 @@
         <v>132.70481133397854</v>
       </c>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A728" s="2">
         <v>43282</v>
       </c>
@@ -6269,7 +6247,7 @@
         <v>133.07972091568664</v>
       </c>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A729" s="2">
         <v>43313</v>
       </c>
@@ -6277,7 +6255,7 @@
         <v>133.51619355581718</v>
       </c>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A730" s="2">
         <v>43344</v>
       </c>
@@ -6285,7 +6263,7 @@
         <v>133.00435984585857</v>
       </c>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A731" s="2">
         <v>43374</v>
       </c>
@@ -6293,7 +6271,7 @@
         <v>133.66241741352701</v>
       </c>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A732" s="2">
         <v>43405</v>
       </c>
@@ -6301,7 +6279,7 @@
         <v>133.03262422687214</v>
       </c>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A733" s="2">
         <v>43435</v>
       </c>
@@ -6309,7 +6287,7 @@
         <v>133.23699146204518</v>
       </c>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A734" s="2">
         <v>43466</v>
       </c>
@@ -6317,7 +6295,7 @@
         <v>133.32330505965876</v>
       </c>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A735" s="2">
         <v>43497</v>
       </c>
@@ -6325,7 +6303,7 @@
         <v>133.52820530944842</v>
       </c>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A736" s="2">
         <v>43525</v>
       </c>
@@ -6333,7 +6311,7 @@
         <v>134.30961001118081</v>
       </c>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A737" s="2">
         <v>43556</v>
       </c>
@@ -6341,7 +6319,7 @@
         <v>133.90617451103617</v>
       </c>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A738" s="2">
         <v>43586</v>
       </c>
@@ -6349,7 +6327,7 @@
         <v>134.10547922959668</v>
       </c>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A739" s="2">
         <v>43617</v>
       </c>
@@ -6357,7 +6335,7 @@
         <v>133.28598403525439</v>
       </c>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A740" s="2">
         <v>43647</v>
       </c>
@@ -6365,7 +6343,7 @@
         <v>133.3779286704152</v>
       </c>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A741" s="2">
         <v>43678</v>
       </c>
@@ -6373,7 +6351,7 @@
         <v>133.33836965445238</v>
       </c>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A742" s="2">
         <v>43709</v>
       </c>
@@ -6381,7 +6359,7 @@
         <v>132.99223768349594</v>
       </c>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A743" s="2">
         <v>43739</v>
       </c>
@@ -6389,7 +6367,7 @@
         <v>132.86477631216601</v>
       </c>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A744" s="2">
         <v>43770</v>
       </c>
@@ -6397,7 +6375,7 @@
         <v>133.1996420125318</v>
       </c>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A745" s="2">
         <v>43800</v>
       </c>
@@ -6405,7 +6383,7 @@
         <v>133.57554746476427</v>
       </c>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A746" s="2">
         <v>43831</v>
       </c>
@@ -6413,7 +6391,7 @@
         <v>127.58934901325416</v>
       </c>
     </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A747" s="2">
         <v>43862</v>
       </c>
@@ -6421,7 +6399,7 @@
         <v>128.17717093465464</v>
       </c>
     </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A748" s="2">
         <v>43891</v>
       </c>
@@ -6429,7 +6407,7 @@
         <v>127.84462769022163</v>
       </c>
     </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A749" s="2">
         <v>43922</v>
       </c>
@@ -6437,7 +6415,7 @@
         <v>116.36376494758082</v>
       </c>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A750" s="2">
         <v>43952</v>
       </c>
@@ -6445,7 +6423,7 @@
         <v>117.14542313010887</v>
       </c>
     </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A751" s="2">
         <v>43983</v>
       </c>
@@ -6453,7 +6431,7 @@
         <v>123.00653670494528</v>
       </c>
     </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A752" s="2">
         <v>44013</v>
       </c>
@@ -6461,7 +6439,7 @@
         <v>126.83948048837229</v>
       </c>
     </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A753" s="2">
         <v>44044</v>
       </c>
@@ -6469,7 +6447,7 @@
         <v>128.50661718139332</v>
       </c>
     </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A754" s="2">
         <v>44075</v>
       </c>
@@ -6477,7 +6455,7 @@
         <v>130.24017740331402</v>
       </c>
     </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A755" s="2">
         <v>44105</v>
       </c>
@@ -6485,7 +6463,7 @@
         <v>131.29923387399833</v>
       </c>
     </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A756" s="2">
         <v>44136</v>
       </c>
@@ -6493,7 +6471,7 @@
         <v>132.87069357636253</v>
       </c>
     </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A757" s="2">
         <v>44166</v>
       </c>
@@ -6501,7 +6479,7 @@
         <v>134.67584342685754</v>
       </c>
     </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A758" s="2">
         <v>44197</v>
       </c>
@@ -6509,7 +6487,7 @@
         <v>136.5167747812277</v>
       </c>
     </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A759" s="2">
         <v>44228</v>
       </c>
@@ -6517,7 +6495,7 @@
         <v>136.46529123198786</v>
       </c>
     </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A760" s="2">
         <v>44256</v>
       </c>
@@ -6525,7 +6503,7 @@
         <v>136.9894303934594</v>
       </c>
     </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A761" s="2">
         <v>44287</v>
       </c>
@@ -6533,7 +6511,7 @@
         <v>137.23265166746748</v>
       </c>
     </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A762" s="2">
         <v>44317</v>
       </c>
@@ -6541,7 +6519,7 @@
         <v>135.45460918997063</v>
       </c>
     </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A763" s="2">
         <v>44348</v>
       </c>
@@ -6549,7 +6527,7 @@
         <v>137.63156641044188</v>
       </c>
     </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A764" s="2">
         <v>44378</v>
       </c>
@@ -6557,7 +6535,7 @@
         <v>137.42556347833599</v>
       </c>
     </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A765" s="2">
         <v>44409</v>
       </c>
@@ -6565,7 +6543,7 @@
         <v>136.84665189765798</v>
       </c>
     </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A766" s="2">
         <v>44440</v>
       </c>
@@ -6573,7 +6551,7 @@
         <v>135.60922340045752</v>
       </c>
     </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A767" s="2">
         <v>44470</v>
       </c>
@@ -6581,7 +6559,7 @@
         <v>136.42847250213441</v>
       </c>
     </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A768" s="2">
         <v>44501</v>
       </c>
@@ -6589,7 +6567,7 @@
         <v>138.60700681859183</v>
       </c>
     </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A769" s="2">
         <v>44531</v>
       </c>
@@ -6597,7 +6575,7 @@
         <v>140.54298026179424</v>
       </c>
     </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A770" s="2">
         <v>44562</v>
       </c>
